--- a/data/starbound_data.xlsx
+++ b/data/starbound_data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\campaign_dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC039F1-3B19-48A6-A47C-7FF57494118A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2A09BF-20D0-4643-B736-676CF9F726E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{63028853-D2A9-47E4-8FD4-99117B4633E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{63028853-D2A9-47E4-8FD4-99117B4633E5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="pc_rolls_overview" sheetId="2" r:id="rId1"/>
+    <sheet name="pc_combat_stats" sheetId="1" r:id="rId2"/>
+    <sheet name="pc_rolls" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="52">
   <si>
     <t>session</t>
   </si>
@@ -93,6 +95,105 @@
   </si>
   <si>
     <t>Sparrow punches plague maiden masquerading as an old lady at the Bastion.</t>
+  </si>
+  <si>
+    <t>atk_rolls</t>
+  </si>
+  <si>
+    <t>save_rolls</t>
+  </si>
+  <si>
+    <t>check_rolls</t>
+  </si>
+  <si>
+    <t>nat_one</t>
+  </si>
+  <si>
+    <t>nat_twenty</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>roll_total</t>
+  </si>
+  <si>
+    <t>roll_base</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Combat</t>
+  </si>
+  <si>
+    <t>ability_save</t>
+  </si>
+  <si>
+    <t>skill_check</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Constitution</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Acrobatics</t>
+  </si>
+  <si>
+    <t>Wisdom</t>
+  </si>
+  <si>
+    <t>Dexterity</t>
+  </si>
+  <si>
+    <t>Investigation</t>
+  </si>
+  <si>
+    <t>Exploration</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>Insight</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Arcana</t>
+  </si>
+  <si>
+    <t>Stealth</t>
+  </si>
+  <si>
+    <t>Persuasion</t>
+  </si>
+  <si>
+    <t>final_blows</t>
+  </si>
+  <si>
+    <t>42-1</t>
+  </si>
+  <si>
+    <t>Athletics</t>
+  </si>
+  <si>
+    <t>Perception</t>
+  </si>
+  <si>
+    <t>Continued from 41-1. Thorns vs Plague Maiden. Evie bloodlusted at end.</t>
   </si>
 </sst>
 </file>
@@ -142,9 +243,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,12 +561,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26FA3B5-C60A-486C-9DEB-B56981306737}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39166F29-CC4B-498B-AFD0-9B5550032F47}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,11 +626,13 @@
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="10.140625" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="105" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="7" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="105" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,10 +667,13 @@
         <v>16</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>41</v>
       </c>
@@ -527,8 +683,17 @@
       <c r="C2">
         <v>9</v>
       </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
       <c r="F2">
         <v>41</v>
+      </c>
+      <c r="G2">
+        <v>23</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -539,11 +704,17 @@
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>41</v>
       </c>
@@ -553,17 +724,38 @@
       <c r="C3">
         <v>9</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
       <c r="H3" t="s">
         <v>17</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
       <c r="K3">
         <v>2</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>41</v>
       </c>
@@ -573,14 +765,38 @@
       <c r="C4">
         <v>9</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
       <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="L4" t="s">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>41</v>
       </c>
@@ -590,8 +806,17 @@
       <c r="C5">
         <v>9</v>
       </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
       <c r="F5">
         <v>42</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
@@ -599,14 +824,20 @@
       <c r="I5">
         <v>2</v>
       </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
       <c r="K5">
         <v>2</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>41</v>
       </c>
@@ -625,21 +856,3579 @@
       <c r="F6">
         <v>20</v>
       </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
       <c r="H6" t="s">
         <v>17</v>
       </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>89</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>94</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>55</v>
+      </c>
+      <c r="E9">
+        <v>31</v>
+      </c>
+      <c r="F9">
+        <v>62</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>104</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>22</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <v>32</v>
+      </c>
+      <c r="F11">
+        <v>62</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DACA06-1040-464F-9CB0-D287674473A4}">
+  <dimension ref="A1:H127"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A128" sqref="A128"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>17</v>
+      </c>
+      <c r="H10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <v>18</v>
+      </c>
+      <c r="H11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17">
+        <v>18</v>
+      </c>
+      <c r="H17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19">
+        <v>16</v>
+      </c>
+      <c r="H19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+      <c r="H22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+      <c r="H23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25">
+        <v>20</v>
+      </c>
+      <c r="H25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28">
+        <v>12</v>
+      </c>
+      <c r="H28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32">
+        <v>13</v>
+      </c>
+      <c r="H32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34">
+        <v>18</v>
+      </c>
+      <c r="H34">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38">
+        <v>14</v>
+      </c>
+      <c r="H38">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39">
+        <v>17</v>
+      </c>
+      <c r="H39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40">
+        <v>17</v>
+      </c>
+      <c r="H40">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42">
+        <v>7</v>
+      </c>
+      <c r="H42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43">
+        <v>18</v>
+      </c>
+      <c r="H43">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>41</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46">
+        <v>10</v>
+      </c>
+      <c r="H46">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <v>41</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47">
+        <v>18</v>
+      </c>
+      <c r="H47">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>41</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48">
+        <v>13</v>
+      </c>
+      <c r="H48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49">
+        <v>41</v>
+      </c>
+      <c r="C49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49">
+        <v>8</v>
+      </c>
+      <c r="H49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50">
+        <v>41</v>
+      </c>
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50">
+        <v>16</v>
+      </c>
+      <c r="H50">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51">
+        <v>41</v>
+      </c>
+      <c r="C51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51">
+        <v>14</v>
+      </c>
+      <c r="H51">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52">
+        <v>41</v>
+      </c>
+      <c r="C52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52">
+        <v>17</v>
+      </c>
+      <c r="H52">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53">
+        <v>41</v>
+      </c>
+      <c r="C53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54">
+        <v>41</v>
+      </c>
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54">
+        <v>14</v>
+      </c>
+      <c r="H54">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55">
+        <v>41</v>
+      </c>
+      <c r="C55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+      <c r="H55">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56">
+        <v>41</v>
+      </c>
+      <c r="C56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56">
+        <v>9</v>
+      </c>
+      <c r="H56">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57">
+        <v>41</v>
+      </c>
+      <c r="C57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57">
+        <v>16</v>
+      </c>
+      <c r="H57">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58">
+        <v>41</v>
+      </c>
+      <c r="C58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58">
+        <v>14</v>
+      </c>
+      <c r="H58">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <v>41</v>
+      </c>
+      <c r="C59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59">
+        <v>11</v>
+      </c>
+      <c r="H59">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60">
+        <v>41</v>
+      </c>
+      <c r="C60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G60">
+        <v>8</v>
+      </c>
+      <c r="H60">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61">
+        <v>41</v>
+      </c>
+      <c r="C61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62">
+        <v>41</v>
+      </c>
+      <c r="C62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62">
+        <v>11</v>
+      </c>
+      <c r="H62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63">
+        <v>41</v>
+      </c>
+      <c r="C63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63">
+        <v>12</v>
+      </c>
+      <c r="H63">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64">
+        <v>41</v>
+      </c>
+      <c r="C64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64">
+        <v>19</v>
+      </c>
+      <c r="H64">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65">
+        <v>41</v>
+      </c>
+      <c r="C65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66">
+        <v>41</v>
+      </c>
+      <c r="C66" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66">
+        <v>19</v>
+      </c>
+      <c r="H66">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67">
+        <v>41</v>
+      </c>
+      <c r="C67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67">
+        <v>11</v>
+      </c>
+      <c r="H67">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68">
+        <v>41</v>
+      </c>
+      <c r="C68" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68">
+        <v>11</v>
+      </c>
+      <c r="H68">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69">
+        <v>42</v>
+      </c>
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G69">
+        <v>7</v>
+      </c>
+      <c r="H69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70">
+        <v>42</v>
+      </c>
+      <c r="C70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70">
+        <v>10</v>
+      </c>
+      <c r="H70">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71">
+        <v>42</v>
+      </c>
+      <c r="C71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G71">
+        <v>15</v>
+      </c>
+      <c r="H71">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72">
+        <v>42</v>
+      </c>
+      <c r="C72" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72">
+        <v>5</v>
+      </c>
+      <c r="H72">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73">
+        <v>42</v>
+      </c>
+      <c r="C73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74">
+        <v>42</v>
+      </c>
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G74">
+        <v>15</v>
+      </c>
+      <c r="H74">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75">
+        <v>42</v>
+      </c>
+      <c r="C75" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75">
+        <v>9</v>
+      </c>
+      <c r="H75">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76">
+        <v>42</v>
+      </c>
+      <c r="C76" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77">
+        <v>42</v>
+      </c>
+      <c r="C77" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="H77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78">
+        <v>42</v>
+      </c>
+      <c r="C78" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G78">
+        <v>15</v>
+      </c>
+      <c r="H78">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79">
+        <v>42</v>
+      </c>
+      <c r="C79" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G79">
+        <v>5</v>
+      </c>
+      <c r="H79">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80">
+        <v>42</v>
+      </c>
+      <c r="C80" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" t="s">
+        <v>29</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G80">
+        <v>10</v>
+      </c>
+      <c r="H80">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81">
+        <v>42</v>
+      </c>
+      <c r="C81" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G81">
+        <v>10</v>
+      </c>
+      <c r="H81">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82">
+        <v>42</v>
+      </c>
+      <c r="C82" t="s">
+        <v>35</v>
+      </c>
+      <c r="D82" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G82">
+        <v>16</v>
+      </c>
+      <c r="H82">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83">
+        <v>42</v>
+      </c>
+      <c r="C83" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G83">
+        <v>5</v>
+      </c>
+      <c r="H83">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84">
+        <v>42</v>
+      </c>
+      <c r="C84" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G84">
+        <v>10</v>
+      </c>
+      <c r="H84">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85">
+        <v>42</v>
+      </c>
+      <c r="C85" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" t="s">
+        <v>29</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86">
+        <v>42</v>
+      </c>
+      <c r="C86" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" t="s">
+        <v>29</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G86">
+        <v>7</v>
+      </c>
+      <c r="H86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87">
+        <v>42</v>
+      </c>
+      <c r="C87" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G87">
+        <v>10</v>
+      </c>
+      <c r="H87">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88">
+        <v>42</v>
+      </c>
+      <c r="C88" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" t="s">
+        <v>29</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G88">
+        <v>13</v>
+      </c>
+      <c r="H88">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89">
+        <v>42</v>
+      </c>
+      <c r="C89" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" t="s">
+        <v>29</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G89">
+        <v>8</v>
+      </c>
+      <c r="H89">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90">
+        <v>42</v>
+      </c>
+      <c r="C90" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" t="s">
+        <v>29</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G90">
+        <v>15</v>
+      </c>
+      <c r="H90">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91">
+        <v>42</v>
+      </c>
+      <c r="C91" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" t="s">
+        <v>29</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G91">
+        <v>9</v>
+      </c>
+      <c r="H91">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92">
+        <v>42</v>
+      </c>
+      <c r="C92" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G92">
+        <v>10</v>
+      </c>
+      <c r="H92">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93">
+        <v>42</v>
+      </c>
+      <c r="C93" t="s">
+        <v>28</v>
+      </c>
+      <c r="D93" t="s">
+        <v>29</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G93">
+        <v>9</v>
+      </c>
+      <c r="H93">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94">
+        <v>42</v>
+      </c>
+      <c r="C94" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" t="s">
+        <v>29</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G94">
+        <v>12</v>
+      </c>
+      <c r="H94">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95">
+        <v>42</v>
+      </c>
+      <c r="C95" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" t="s">
+        <v>29</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G95">
+        <v>18</v>
+      </c>
+      <c r="H95">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96">
+        <v>42</v>
+      </c>
+      <c r="C96" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" t="s">
+        <v>29</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G96">
+        <v>4</v>
+      </c>
+      <c r="H96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97">
+        <v>42</v>
+      </c>
+      <c r="C97" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" t="s">
+        <v>29</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G97">
+        <v>18</v>
+      </c>
+      <c r="H97">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98">
+        <v>42</v>
+      </c>
+      <c r="C98" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G98">
+        <v>6</v>
+      </c>
+      <c r="H98">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99">
+        <v>42</v>
+      </c>
+      <c r="C99" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" t="s">
+        <v>29</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G99">
+        <v>3</v>
+      </c>
+      <c r="H99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100">
+        <v>42</v>
+      </c>
+      <c r="C100" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" t="s">
+        <v>29</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G100">
+        <v>19</v>
+      </c>
+      <c r="H100">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101">
+        <v>42</v>
+      </c>
+      <c r="C101" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G101">
+        <v>20</v>
+      </c>
+      <c r="H101">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102">
+        <v>42</v>
+      </c>
+      <c r="C102" t="s">
+        <v>33</v>
+      </c>
+      <c r="D102" t="s">
+        <v>29</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G102">
+        <v>13</v>
+      </c>
+      <c r="H102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103">
+        <v>42</v>
+      </c>
+      <c r="C103" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G103">
+        <v>14</v>
+      </c>
+      <c r="H103">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104">
+        <v>42</v>
+      </c>
+      <c r="C104" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" t="s">
+        <v>29</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G104">
+        <v>8</v>
+      </c>
+      <c r="H104">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105">
+        <v>42</v>
+      </c>
+      <c r="C105" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" t="s">
+        <v>29</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G105">
+        <v>11</v>
+      </c>
+      <c r="H105">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106">
+        <v>42</v>
+      </c>
+      <c r="C106" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" t="s">
+        <v>29</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G106">
+        <v>2</v>
+      </c>
+      <c r="H106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107">
+        <v>42</v>
+      </c>
+      <c r="C107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G107">
+        <v>3</v>
+      </c>
+      <c r="H107">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108">
+        <v>42</v>
+      </c>
+      <c r="C108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" t="s">
+        <v>29</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G108">
+        <v>3</v>
+      </c>
+      <c r="H108">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109">
+        <v>42</v>
+      </c>
+      <c r="C109" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" t="s">
+        <v>29</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G109">
+        <v>4</v>
+      </c>
+      <c r="H109">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110">
+        <v>42</v>
+      </c>
+      <c r="C110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G110">
+        <v>18</v>
+      </c>
+      <c r="H110">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111">
+        <v>42</v>
+      </c>
+      <c r="C111" t="s">
+        <v>28</v>
+      </c>
+      <c r="D111" t="s">
+        <v>29</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G111">
+        <v>5</v>
+      </c>
+      <c r="H111">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112">
+        <v>42</v>
+      </c>
+      <c r="C112" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" t="s">
+        <v>29</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G112">
+        <v>8</v>
+      </c>
+      <c r="H112">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113">
+        <v>42</v>
+      </c>
+      <c r="C113" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" t="s">
+        <v>29</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G113">
+        <v>11</v>
+      </c>
+      <c r="H113">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114">
+        <v>42</v>
+      </c>
+      <c r="C114" t="s">
+        <v>33</v>
+      </c>
+      <c r="D114" t="s">
+        <v>29</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115">
+        <v>42</v>
+      </c>
+      <c r="C115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" t="s">
+        <v>29</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G115">
+        <v>18</v>
+      </c>
+      <c r="H115">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116">
+        <v>42</v>
+      </c>
+      <c r="C116" t="s">
+        <v>35</v>
+      </c>
+      <c r="D116" t="s">
+        <v>29</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G116">
+        <v>18</v>
+      </c>
+      <c r="H116">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117">
+        <v>42</v>
+      </c>
+      <c r="C117" t="s">
+        <v>35</v>
+      </c>
+      <c r="D117" t="s">
+        <v>29</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G117">
+        <v>10</v>
+      </c>
+      <c r="H117">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118">
+        <v>42</v>
+      </c>
+      <c r="C118" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" t="s">
+        <v>29</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G118">
+        <v>6</v>
+      </c>
+      <c r="H118">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119">
+        <v>42</v>
+      </c>
+      <c r="C119" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" t="s">
+        <v>29</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G119">
+        <v>9</v>
+      </c>
+      <c r="H119">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120">
+        <v>42</v>
+      </c>
+      <c r="C120" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" t="s">
+        <v>29</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G120">
+        <v>16</v>
+      </c>
+      <c r="H120">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121">
+        <v>42</v>
+      </c>
+      <c r="C121" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" t="s">
+        <v>29</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G121">
+        <v>14</v>
+      </c>
+      <c r="H121">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122">
+        <v>42</v>
+      </c>
+      <c r="C122" t="s">
+        <v>35</v>
+      </c>
+      <c r="D122" t="s">
+        <v>40</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123">
+        <v>42</v>
+      </c>
+      <c r="C123" t="s">
+        <v>35</v>
+      </c>
+      <c r="D123" t="s">
+        <v>40</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G123">
+        <v>3</v>
+      </c>
+      <c r="H123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124">
+        <v>42</v>
+      </c>
+      <c r="C124" t="s">
+        <v>35</v>
+      </c>
+      <c r="D124" t="s">
+        <v>41</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G124">
+        <v>11</v>
+      </c>
+      <c r="H124">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125">
+        <v>42</v>
+      </c>
+      <c r="C125" t="s">
+        <v>35</v>
+      </c>
+      <c r="D125" t="s">
+        <v>41</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G125">
+        <v>17</v>
+      </c>
+      <c r="H125">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126">
+        <v>42</v>
+      </c>
+      <c r="C126" t="s">
+        <v>35</v>
+      </c>
+      <c r="D126" t="s">
+        <v>41</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G126">
+        <v>20</v>
+      </c>
+      <c r="H126">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127">
+        <v>42</v>
+      </c>
+      <c r="C127" t="s">
+        <v>35</v>
+      </c>
+      <c r="D127" t="s">
+        <v>41</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G127">
+        <v>15</v>
+      </c>
+      <c r="H127">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{B9C0B882-C141-4122-AD87-A467EFE9E59C}">
+      <formula1>"Athletics,Acrobatics,Sleight of Hand,Arcana,History,Investigation,Nature,Religion,Animal Handling,Insight,Medicine, Perception,Survival,Deception,Intimidation,Performance,Persuasion,null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{3560DF99-3466-4C1C-87E0-56CECDF605CA}">
+      <formula1>"Strength, Dexterity, Constitution, Intelligence, Wisdom, Charisma, null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{1EDDFBB2-450F-420B-A83D-4C39646579EA}">
+      <formula1>"Combat, Exploration, Social"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{259E1576-C14A-4829-963D-0D7B9F62B0B3}">
+      <formula1>"Attack,Save,Check"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{0B4224CA-7E9B-4F6C-8C54-43AAD8FF4C6D}">
+      <formula1>"Sparrow,Pollux,Evelyn,Trey,Madaine"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{B301BAD2-A3AD-4F41-868C-045B31EA1543}">
+      <formula1>"Athletics,Acrobatics,Sleight of Hand,Arcana,History,Investigation,Nature,Religion,Animal Handling,Insight,Medicine, Perception,Survival,Deception,Intimidation,Performance,Persuasion,null,Stealth"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/starbound_data.xlsx
+++ b/data/starbound_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\campaign_dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2A09BF-20D0-4643-B736-676CF9F726E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023944C8-25FA-4D17-BEE5-F942CE2BA664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{63028853-D2A9-47E4-8FD4-99117B4633E5}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{63028853-D2A9-47E4-8FD4-99117B4633E5}"/>
   </bookViews>
   <sheets>
     <sheet name="pc_rolls_overview" sheetId="2" r:id="rId1"/>
@@ -612,7 +612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39166F29-CC4B-498B-AFD0-9B5550032F47}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
@@ -1093,9 +1093,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DACA06-1040-464F-9CB0-D287674473A4}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A128" sqref="A128"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
